--- a/data/trans_orig/TAM_HOG-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.976989593416114</v>
+        <v>2.969666459874946</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.954249543702352</v>
+        <v>2.965604606566807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.508585811169042</v>
+        <v>2.48953548630939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.62123034364334</v>
+        <v>2.628846529244664</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.947521374843478</v>
+        <v>2.944216638286132</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.828461825259794</v>
+        <v>2.834323892104282</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.692758598718345</v>
+        <v>2.691367165293221</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.689137930443103</v>
+        <v>2.681290989897903</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.00008818275744</v>
+        <v>2.991761037214037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.942502947880393</v>
+        <v>2.950052492664005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.632579342008353</v>
+        <v>2.627268967746982</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.683091380942364</v>
+        <v>2.681526141404869</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.18626144867081</v>
+        <v>3.18945358107492</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.207396087152126</v>
+        <v>3.21726306571269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.781472015230503</v>
+        <v>2.766632374532082</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.852301156055708</v>
+        <v>2.85129184057313</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.255739416559815</v>
+        <v>3.242674472593517</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.119831271358527</v>
+        <v>3.116875370119603</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.955927284502269</v>
+        <v>2.957538329109263</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.889726696520011</v>
+        <v>2.882084254091627</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.174620585761135</v>
+        <v>3.173303656687969</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.142168583009155</v>
+        <v>3.137954087768269</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.819685384150033</v>
+        <v>2.808469853334431</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.835730742350432</v>
+        <v>2.827608295157307</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.76428238832836</v>
+        <v>2.752431906405427</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.945393859079385</v>
+        <v>2.943065455417532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.828830615313919</v>
+        <v>2.8287937852928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.536201140440141</v>
+        <v>2.541251691993914</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.075670815279131</v>
+        <v>3.082463998636591</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.131188490629684</v>
+        <v>3.131585359034971</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.788418871048499</v>
+        <v>2.78348273481663</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.748694467439829</v>
+        <v>2.737261998187301</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.956786363378295</v>
+        <v>2.951988992104508</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.065155904900236</v>
+        <v>3.056304652307102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2.83664999658684</v>
+        <v>2.842246194316421</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.665449612858138</v>
+        <v>2.659217477741425</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.020166738068576</v>
+        <v>3.010945205984637</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.20204185860319</v>
+        <v>3.20076800620391</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.081217498085352</v>
+        <v>3.093858499110698</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.767825581899321</v>
+        <v>2.774239101602304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.329540365405285</v>
+        <v>3.332654614017521</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.395229090245806</v>
+        <v>3.38933207643344</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.031153525759436</v>
+        <v>3.028351024814252</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.948234375984722</v>
+        <v>2.953287766571611</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.136510581695766</v>
+        <v>3.141302766804805</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.249062267230539</v>
+        <v>3.239813946544387</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.015808129875336</v>
+        <v>3.018591175877658</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.825941960777735</v>
+        <v>2.821033747296576</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>2.905824474936239</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>2.68377269558284</v>
+        <v>2.683772695582841</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.086029182734822</v>
+        <v>3.082705762884864</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.040526502098296</v>
+        <v>3.040052512548126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.831379586901001</v>
+        <v>2.820519253865993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.564679194374579</v>
+        <v>2.580566762016187</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.239708255896586</v>
+        <v>3.224593177451124</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.896133187202702</v>
+        <v>2.901238741496724</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.619935654817024</v>
+        <v>2.637585741853823</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.510421289754858</v>
+        <v>2.52293856766755</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.157506949276929</v>
+        <v>3.156065371847284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.042154274646653</v>
+        <v>3.035759001070054</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.811415102847931</v>
+        <v>2.812524054883768</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.591929395083909</v>
+        <v>2.593123559216493</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.285717863586952</v>
+        <v>3.281049577887921</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.243607778478081</v>
+        <v>3.244654148985321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.034720596968711</v>
+        <v>3.03204043512745</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.800795204015893</v>
+        <v>2.80030609765044</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.615971267648018</v>
+        <v>3.623775862663527</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.237165959305056</v>
+        <v>3.256486087093667</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.027013312848558</v>
+        <v>3.03063422213247</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.849861456382336</v>
+        <v>2.86198155804845</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.334222458846591</v>
+        <v>3.34033920525934</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.209146486566484</v>
+        <v>3.208828411556239</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.000762179338299</v>
+        <v>2.999231434923038</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.777492003494724</v>
+        <v>2.787957856243048</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>2.983507409186479</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>2.870692713164275</v>
+        <v>2.870692713164276</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>3.1825089195286</v>
@@ -1101,7 +1101,7 @@
         <v>2.949853600939434</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>2.740010353400845</v>
+        <v>2.740010353400846</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.043951604323824</v>
+        <v>3.053332092435898</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.06348663571044</v>
+        <v>3.064351883135226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.853205588028144</v>
+        <v>2.854990574954639</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.558270581380376</v>
+        <v>2.55370000610019</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.196310554213419</v>
+        <v>3.195042420461082</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.216736301609079</v>
+        <v>3.221918028868777</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.895524070648346</v>
+        <v>2.885058191593489</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.802584470865731</v>
+        <v>2.790832957416942</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.123484829515058</v>
+        <v>3.123907806244553</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.14830842617598</v>
+        <v>3.151570128636634</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.894936134694445</v>
+        <v>2.897055857077472</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.685080319676441</v>
+        <v>2.677581601700983</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.187260974571545</v>
+        <v>3.193785565163088</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.207674405506398</v>
+        <v>3.209461060832116</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.000849754269025</v>
+        <v>3.002449917773194</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.728272729436201</v>
+        <v>2.732653725067888</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.396094264336329</v>
+        <v>3.388298748316744</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.400041632449484</v>
+        <v>3.398187135117551</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.077627686253428</v>
+        <v>3.077005999447353</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.942765409709625</v>
+        <v>2.945441386713513</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.238773437713129</v>
+        <v>3.238620646564443</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.264824367020991</v>
+        <v>3.267916815747062</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.010003591397367</v>
+        <v>3.006404733060159</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.796331621193643</v>
+        <v>2.795279764745627</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.023841311754162</v>
+        <v>3.019917456804562</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.038453869876638</v>
+        <v>3.050217314512093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.757399095071706</v>
+        <v>2.776433094867864</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.497216330438138</v>
+        <v>2.519211128869734</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.224617961993843</v>
+        <v>3.222135142885066</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.093988106429962</v>
+        <v>3.086320442745019</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.884091335472974</v>
+        <v>2.878751563791441</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.621939717400015</v>
+        <v>2.623940058303383</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.182920526920558</v>
+        <v>3.176293720166885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.103164418461783</v>
+        <v>3.091228625291766</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.861768093000637</v>
+        <v>2.862423643973654</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.612752446266343</v>
+        <v>2.603163391491286</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.305970800837284</v>
+        <v>3.311153903471606</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.271898315982193</v>
+        <v>3.277090173531939</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.987696289357571</v>
+        <v>2.975921516923691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.750913517059692</v>
+        <v>2.763862380468279</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.468344323052336</v>
+        <v>3.457672132928327</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.290110894524594</v>
+        <v>3.288925063367811</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.082720101619928</v>
+        <v>3.070529390080915</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.787176104415817</v>
+        <v>2.787036896318384</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.363540552157907</v>
+        <v>3.366174427789162</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.254042981017621</v>
+        <v>3.246893611405855</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3.010445700669055</v>
+        <v>3.007766313599094</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.741771480290636</v>
+        <v>2.744421959317379</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>2.876489738789615</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>2.789935002670374</v>
+        <v>2.789935002670375</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>3.258901986014376</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.7072257663908</v>
+        <v>3.685049904963008</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.569855762017679</v>
+        <v>3.574401018044892</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.448046269781297</v>
+        <v>3.450916878037269</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.26998015887391</v>
+        <v>3.239053479800512</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.048042920580786</v>
+        <v>3.059300162532645</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.959269302620878</v>
+        <v>2.957008677310279</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.795534190080158</v>
+        <v>2.799448909526997</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.695774548109278</v>
+        <v>2.689295906703502</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>3.19338099584184</v>
+        <v>3.195751916889825</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3.101139482622923</v>
+        <v>3.092913684301903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2.95521809091598</v>
+        <v>2.947357153083627</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.846634187114436</v>
+        <v>2.83929854137969</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.955575751192408</v>
+        <v>3.936603526909552</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.850376445387522</v>
+        <v>3.835002828927425</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.774927509289109</v>
+        <v>3.778539371534146</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.628210445772154</v>
+        <v>3.610870045369668</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.201690294641601</v>
+        <v>3.203668668811092</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.120338213536818</v>
+        <v>3.123509322709401</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.964124528875122</v>
+        <v>2.960174862578733</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.898848010555622</v>
+        <v>2.889016183542738</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.323622571272052</v>
+        <v>3.330332544455024</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3.239279894780446</v>
+        <v>3.243155235625975</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3.107218753316427</v>
+        <v>3.101613644875441</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>3.022027972019873</v>
+        <v>3.029388943773693</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>2.928850592436604</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>2.753526057057033</v>
+        <v>2.753526057057032</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.121014626409074</v>
+        <v>3.118870334609276</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.126083236306945</v>
+        <v>3.122558146776373</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.899488168238722</v>
+        <v>2.896682331469027</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.671627055189733</v>
+        <v>2.668318151845028</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.173835053981943</v>
+        <v>3.17253743225105</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.103136374115321</v>
+        <v>3.106293376322939</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.876476952009967</v>
+        <v>2.87750150684313</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.749694295181722</v>
+        <v>2.749766089645581</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.159770581140127</v>
+        <v>3.158615773226126</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3.126796925921395</v>
+        <v>3.12818791464456</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2.897504697857296</v>
+        <v>2.895956971055239</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>2.723261266120772</v>
+        <v>2.722500206890826</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.206844181690676</v>
+        <v>3.211600876344568</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.211905693661402</v>
+        <v>3.209952604694094</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.984643513091914</v>
+        <v>2.988153346249506</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.764872036300902</v>
+        <v>2.763088892134532</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.266188749767498</v>
+        <v>3.263018238672183</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.19405108279884</v>
+        <v>3.196257453966291</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.957935571965768</v>
+        <v>2.963141128711579</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.829821364316588</v>
+        <v>2.828543162909575</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.22438503698799</v>
+        <v>3.22269736403371</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3.192463511738225</v>
+        <v>3.193109502990649</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.962907120311646</v>
+        <v>2.961374690232575</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>2.788275090435982</v>
+        <v>2.784564964668188</v>
       </c>
     </row>
     <row r="25">
